--- a/Back-end/HumanResourcesManagement/HumanResourcesManagement/Templates/BaoCao_DanhSachHoSoLuong.xlsx
+++ b/Back-end/HumanResourcesManagement/HumanResourcesManagement/Templates/BaoCao_DanhSachHoSoLuong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FPT University\2024_SUMMER\HumanResourcesManagement\Back-end\HumanResourcesManagement\HumanResourcesManagement\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C99BA5D-60EE-4A5F-9844-D0117B03DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F71E08E-A25C-4587-9570-534C50107AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{D9C4682C-1B73-420D-903F-A8364D439C43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9C4682C-1B73-420D-903F-A8364D439C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Công ty …...</t>
   </si>
@@ -33,44 +33,51 @@
     <t>BÁO CÁO DANH SÁCH NHÂN VIÊN</t>
   </si>
   <si>
-    <t>Mã NV</t>
-  </si>
-  <si>
-    <t>Họ và Tên</t>
-  </si>
-  <si>
-    <t>Ngày Sinh</t>
-  </si>
-  <si>
-    <t>Giới Tính</t>
-  </si>
-  <si>
-    <t>Số Điện Thoại</t>
-  </si>
-  <si>
-    <t>Phòng Ban</t>
-  </si>
-  <si>
-    <t>Quê Quán</t>
-  </si>
-  <si>
-    <t>Nơi Sinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thường Trú </t>
-  </si>
-  <si>
-    <t>Tạm Trú</t>
-  </si>
-  <si>
     <t>logo here</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Mã Hợp Đồng</t>
+  </si>
+  <si>
+    <t>Phụ Cấp Trách Nhiệm</t>
+  </si>
+  <si>
+    <t>Phụ Cấp Khác</t>
+  </si>
+  <si>
+    <t>Tổng Lương</t>
+  </si>
+  <si>
+    <t>Thời Hạn Lên Lương (năm)</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Nhóm Lương</t>
+  </si>
+  <si>
+    <t>Trạng Thái</t>
+  </si>
+  <si>
+    <t>Ngày Bắt Đầu</t>
+  </si>
+  <si>
+    <t>Ngày Kết Thúc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;VND&quot;"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +118,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,10 +143,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -143,6 +158,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -152,11 +170,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,91 +506,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A37833E-AE20-4A0E-83C5-D3E2CC82496E}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="14" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="19.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16" style="14" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="E3" s="5" t="s">
+    <row r="3" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -563,5 +604,6 @@
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>